--- a/data/long_bre/P18_4-Edad-long_bre.xlsx
+++ b/data/long_bre/P18_4-Edad-long_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -599,37 +615,47 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-9,41</t>
+          <t>-7,68</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,61</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,67</t>
+          <t>9,18</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-49,64%</t>
+          <t>6,66</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>21,29%</t>
+          <t>-43,5%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>39,87%</t>
+          <t>5,2%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>44,4%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>45,31%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-18,99; -0,26</t>
+          <t>-16,97; 1,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 21,46</t>
+          <t>-11,97; 17,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 20,19</t>
+          <t>-4,23; 20,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-75,71; 5,83</t>
+          <t>-6,72; 18,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-14,31; 76,25</t>
+          <t>-74,31; 12,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-19,22; 127,63</t>
+          <t>-24,17; 59,8</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-17,56; 144,1</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-32,0; 233,51</t>
         </is>
       </c>
     </row>
@@ -675,37 +711,47 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,52</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-13,55</t>
+          <t>-11,73</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-9,39</t>
+          <t>-7,7</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,99%</t>
+          <t>-16,56</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-26,73%</t>
+          <t>5,21%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-20,69%</t>
+          <t>-24,47%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-17,43%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-29,15%</t>
         </is>
       </c>
     </row>
@@ -718,32 +764,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,57; 14,82</t>
+          <t>-10,46; 13,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-26,64; 0,4</t>
+          <t>-28,07; 2,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-22,37; 3,82</t>
+          <t>-21,5; 7,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-26,8; 64,01</t>
+          <t>-33,66; 0,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-48,01; 1,03</t>
+          <t>-29,2; 58,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-42,68; 11,6</t>
+          <t>-49,36; 5,82</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-41,37; 23,41</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-50,33; 3,76</t>
         </is>
       </c>
     </row>
@@ -751,37 +807,47 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,89</t>
+          <t>6,17</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,94</t>
+          <t>9,65</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>-1,48</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>13,01%</t>
+          <t>9,9</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>43,73%</t>
+          <t>11,59%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>80,7%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-4,21%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>34,77%</t>
         </is>
       </c>
     </row>
@@ -794,74 +860,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,71; 18,56</t>
+          <t>-5,98; 19,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 15,71</t>
+          <t>-0,31; 21,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,45; 14,17</t>
+          <t>-14,34; 11,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-13,18; 39,67</t>
+          <t>-9,11; 24,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-29,63; 196,51</t>
+          <t>-10,37; 45,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-28,62; 58,02</t>
+          <t>-5,42; 290,38</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-33,95; 41,2</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-22,58; 129,54</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,89</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-4,57</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-7,51</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>99,57%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-11,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-26,46%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -874,70 +956,94 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,54; 19,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-20,91; 9,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-18,81; 2,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 297,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-41,79; 29,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-52,03; 12,73</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-8,61</t>
+          <t>9,38</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>-5,16</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8,91</t>
+          <t>-7,51</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-20,03%</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,87%</t>
+          <t>93,38%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>23,1%</t>
+          <t>-11,95%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-26,94%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1,27%</t>
         </is>
       </c>
     </row>
@@ -950,32 +1056,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-23,18; 4,06</t>
+          <t>1,22; 18,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-13,63; 14,2</t>
+          <t>-22,78; 8,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 20,88</t>
+          <t>-19,03; 2,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-45,82; 12,12</t>
+          <t>-11,86; 13,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-25,7; 37,9</t>
+          <t>6,2; 300,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,26; 68,02</t>
+          <t>-41,4; 27,12</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-54,37; 12,25</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-44,28; 106,8</t>
         </is>
       </c>
     </row>
@@ -983,37 +1099,47 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-1,28</t>
+          <t>-8,34</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4,96</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-1,4</t>
+          <t>10,09</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-2,73%</t>
+          <t>-3,09</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>34,87%</t>
+          <t>-19,44%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-4,22%</t>
+          <t>3,73%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>26,89%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-5,91%</t>
         </is>
       </c>
     </row>
@@ -1026,74 +1152,90 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-15,89; 12,13</t>
+          <t>-24,53; 5,02</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 15,48</t>
+          <t>-11,5; 17,4</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-16,28; 11,24</t>
+          <t>-1,49; 23,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-27,76; 31,54</t>
+          <t>-26,03; 13,31</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-25,85; 166,3</t>
+          <t>-46,03; 13,96</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-38,19; 49,75</t>
+          <t>-23,26; 53,86</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-3,5; 84,34</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-40,4; 33,64</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-5,01</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>8,62</t>
+          <t>3,59</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,79</t>
+          <t>-2,58</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-22,28%</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>28,59%</t>
+          <t>-2,2%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>10,75%</t>
+          <t>24,24%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-7,45%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>10,29%</t>
         </is>
       </c>
     </row>
@@ -1106,32 +1248,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-23,48; 4,6</t>
+          <t>-14,41; 13,34</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 17,88</t>
+          <t>-6,33; 13,16</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 10,76</t>
+          <t>-19,87; 9,83</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-62,14; 35,01</t>
+          <t>-11,17; 17,19</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,23; 76,62</t>
+          <t>-26,2; 35,62</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-19,4; 52,35</t>
+          <t>-31,11; 132,07</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-41,92; 38,1</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-29,86; 90,52</t>
         </is>
       </c>
     </row>
@@ -1139,37 +1291,47 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>6,51</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-1,28</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-3,39</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>18,72%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-3,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-7,28%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1182,70 +1344,94 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 17,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-11,64; 9,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-12,72; 5,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-13,95; 66,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-24,5; 29,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-24,35; 14,47</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-7,34</t>
+          <t>9,91</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-3,53%</t>
+          <t>-8,23</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-24,72%</t>
+          <t>-5,02%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>33,55%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>5,5%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-24,46%</t>
         </is>
       </c>
     </row>
@@ -1258,74 +1444,90 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-14,36; 12,46</t>
+          <t>-12,98; 7,4</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-19,62; 3,37</t>
+          <t>-1,68; 19,85</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-10,06; 9,58</t>
+          <t>-8,08; 10,09</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-28,07; 38,04</t>
+          <t>-20,0; 1,51</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-51,04; 13,8</t>
+          <t>-48,64; 60,76</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-28,49; 47,42</t>
+          <t>-5,3; 83,43</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-25,0; 48,85</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-48,93; 6,15</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-1,25</t>
+          <t>5,71</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>4,47</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-2,31</t>
+          <t>-3,46</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-7,43%</t>
+          <t>-5,22</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>13,58%</t>
+          <t>15,87%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-7,58%</t>
+          <t>-2,2%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-7,36%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-11,9%</t>
         </is>
       </c>
     </row>
@@ -1338,32 +1540,42 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-7,76; 6,18</t>
+          <t>-4,77; 16,52</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 14,35</t>
+          <t>-10,86; 10,08</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-10,1; 5,37</t>
+          <t>-11,77; 6,62</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-38,37; 48,81</t>
+          <t>-15,93; 5,28</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-15,79; 53,62</t>
+          <t>-11,81; 57,29</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-29,38; 20,69</t>
+          <t>-24,14; 30,63</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-22,37; 16,88</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-31,66; 14,12</t>
         </is>
       </c>
     </row>
@@ -1371,37 +1583,47 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1,86</t>
+          <t>-4,77</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-5,58</t>
+          <t>-9,04</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-5,04</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>13,45</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-12,43%</t>
+          <t>-10,52%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-11,43%</t>
+          <t>-29,31%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>7,61%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>59,72%</t>
         </is>
       </c>
     </row>
@@ -1414,32 +1636,42 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 11,51</t>
+          <t>-15,81; 6,06</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-15,48; 4,08</t>
+          <t>-21,95; 1,06</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-14,02; 3,47</t>
+          <t>-9,58; 10,12</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-17,17; 35,63</t>
+          <t>4,13; 23,67</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-31,06; 10,61</t>
+          <t>-30,53; 16,24</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-28,64; 8,48</t>
+          <t>-52,82; 5,25</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-29,41; 48,9</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>13,74; 137,08</t>
         </is>
       </c>
     </row>
@@ -1447,37 +1679,47 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-0,61</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>7,35</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-1,33%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>5,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>28,99%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1490,74 +1732,94 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-10,89; 8,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-7,0; 9,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 15,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-21,28; 21,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-25,74; 53,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-8,69; 74,66</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>10,38</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>6,13</t>
+          <t>4,77</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>6,04</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>93,63%</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>16,95%</t>
+          <t>-6,16%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>23,51%</t>
+          <t>14,84%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>-4,45%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>4,2%</t>
         </is>
       </c>
     </row>
@@ -1570,32 +1832,42 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>2,25; 18,04</t>
+          <t>-8,2; 6,56</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 15,81</t>
+          <t>-4,37; 14,25</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 14,95</t>
+          <t>-9,1; 6,48</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>12,98; 235,26</t>
+          <t>-14,46; 10,16</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-12,94; 52,0</t>
+          <t>-39,44; 47,24</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-11,77; 70,9</t>
+          <t>-12,49; 55,53</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-27,7; 26,75</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-38,92; 52,37</t>
         </is>
       </c>
     </row>
@@ -1603,37 +1875,47 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-1,43</t>
+          <t>2,64</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-9,25</t>
+          <t>-5,95</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-6,1</t>
+          <t>-5,33</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-3,84%</t>
+          <t>2,92</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-20,98%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-12,44%</t>
+          <t>-12,92%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-11,99%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>6,61%</t>
         </is>
       </c>
     </row>
@@ -1646,32 +1928,42 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-12,91; 9,8</t>
+          <t>-6,62; 11,46</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-19,63; 3,62</t>
+          <t>-16,2; 4,45</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-16,31; 3,76</t>
+          <t>-15,42; 3,2</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-30,43; 32,33</t>
+          <t>-7,74; 13,96</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-39,26; 12,36</t>
+          <t>-14,76; 34,12</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-30,01; 8,35</t>
+          <t>-31,07; 10,73</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-30,1; 8,64</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-15,52; 39,33</t>
         </is>
       </c>
     </row>
@@ -1679,37 +1971,47 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>-8,95</t>
+          <t>-1,59</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>3,12</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>6,65</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>-17,28%</t>
+          <t>-4,01</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>15,84%</t>
+          <t>-3,51%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>5,41%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>25,61%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>-13,45%</t>
         </is>
       </c>
     </row>
@@ -1722,74 +2024,90 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-20,94; 3,41</t>
+          <t>-10,49; 7,6</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 12,9</t>
+          <t>-7,38; 8,84</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-8,35; 8,74</t>
+          <t>-2,61; 15,23</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-36,77; 8,21</t>
+          <t>-13,41; 5,93</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-27,19; 82,28</t>
+          <t>-20,94; 19,1</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-28,13; 41,56</t>
+          <t>-27,7; 49,75</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-8,6; 69,78</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-38,61; 22,33</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>-6,01</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>-6,88</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>-36,47%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>-20,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>7,63%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1802,70 +2120,94 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-14,58; 2,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-20,39; 6,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-9,75; 12,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-68,39; 21,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-49,31; 23,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-27,36; 52,58</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>3,75</t>
+          <t>11,52</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>-3,36</t>
+          <t>6,13</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>5,62</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>10,6%</t>
+          <t>-7,13</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>-7,59%</t>
+          <t>107,09%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>-0,94%</t>
+          <t>16,72%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>22,05%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>-28,81%</t>
         </is>
       </c>
     </row>
@@ -1878,32 +2220,42 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-10,84; 17,52</t>
+          <t>3,2; 19,16</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-21,08; 12,03</t>
+          <t>-4,61; 18,53</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-13,17; 13,04</t>
+          <t>-3,74; 14,31</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-27,31; 65,64</t>
+          <t>-17,88; 4,64</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-39,41; 34,44</t>
+          <t>20,22; 253,18</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-27,01; 38,35</t>
+          <t>-10,61; 61,18</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>-12,02; 70,0</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>-57,84; 29,31</t>
         </is>
       </c>
     </row>
@@ -1911,37 +2263,47 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>10,24</t>
+          <t>-8,82</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>-1,86</t>
+          <t>-5,93</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>45,98%</t>
+          <t>-3,43%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>-6,67%</t>
+          <t>-20,05%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>-12,04%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>-3,08%</t>
         </is>
       </c>
     </row>
@@ -1954,74 +2316,90 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-11,2; 17,08</t>
+          <t>-11,95; 10,2</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 22,52</t>
+          <t>-21,38; 2,04</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-12,44; 9,13</t>
+          <t>-16,11; 3,88</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-20,56; 43,41</t>
+          <t>-15,14; 11,69</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 130,86</t>
+          <t>-27,82; 32,76</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-36,94; 41,63</t>
+          <t>-41,86; 5,67</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>-30,6; 7,97</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>-29,88; 33,98</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>-0,68</t>
+          <t>-10,24</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>2,25</t>
+          <t>2,69</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>-4,15%</t>
+          <t>8,46</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>-19,7%</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>13,91%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>1,22%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>26,43%</t>
         </is>
       </c>
     </row>
@@ -2034,32 +2412,42 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 2,89</t>
+          <t>-22,66; 1,03</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 7,06</t>
+          <t>-6,54; 11,88</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 5,73</t>
+          <t>-8,54; 9,01</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>-27,23; 20,42</t>
+          <t>-4,28; 20,97</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>-7,35; 22,64</t>
+          <t>-39,33; 1,87</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 23,14</t>
+          <t>-28,57; 78,23</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>-28,96; 43,13</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>-11,83; 76,9</t>
         </is>
       </c>
     </row>
@@ -2067,37 +2455,47 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>-5,18</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>-2,5</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>-11,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>-5,64%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -2110,70 +2508,94 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 5,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>-11,15; -0,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>-7,56; 2,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>-10,18; 17,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>-23,1; -0,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>-15,87; 5,18</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>-7,32</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>2,93</t>
+          <t>-6,37</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>3,22</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>-1,19%</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>14,15%</t>
+          <t>-40,94%</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>-18,58%</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>10,9%</t>
+        </is>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>7,65%</t>
         </is>
       </c>
     </row>
@@ -2186,47 +2608,740 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 4,77</t>
+          <t>-16,25; 0,82</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 7,14</t>
+          <t>-19,45; 5,84</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 5,49</t>
+          <t>-8,3; 15,02</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>-11,37; 10,8</t>
+          <t>-13,4; 16,19</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 39,68</t>
+          <t>-68,91; 8,49</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>-11,74; 21,11</t>
+          <t>-46,79; 21,65</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>-23,32; 63,42</t>
+        </is>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>-36,22; 76,19</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>6,2</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>-3,57</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>-2,68</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>-10,5</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>17,93%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>-8,37%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>-6,21%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>-25,36%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>-8,9; 19,23</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>-20,12; 9,56</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>-15,57; 9,38</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>-24,72; 3,95</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>-21,1; 73,23</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>-38,46; 28,69</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>-32,88; 25,47</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>-50,98; 14,91</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>1,12</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>9,94</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>-0,53</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>8,29</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>2,35%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>43,03%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>-1,95%</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>27,97%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>-12,4; 14,19</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>-3,21; 21,78</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>-10,77; 10,78</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>-8,16; 22,2</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>-22,61; 34,89</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>-12,66; 129,5</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>-33,33; 50,3</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>-21,0; 104,21</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>0,39</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>1,76</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>1,72</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>-0,63</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>2,5%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>4,94%</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>6,41%</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>-2,51%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>-3,11; 3,84</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>-3,74; 6,55</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>-2,53; 5,57</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>-6,27; 4,67</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>-17,83; 28,64</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>-9,6; 19,86</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>-8,55; 22,45</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>-21,87; 21,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>1,54</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>-4,66</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>-2,52</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>-5,95</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>4,22%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>-10,69%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>-5,7%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>-12,69%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>-3,05; 6,55</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>-9,95; 0,47</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>-6,93; 2,22</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>-11,7; -0,09</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>-8,18; 19,36</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>-21,19; 1,15</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>-14,61; 5,46</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>-23,55; -0,47</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>-1,93</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>2,9</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>0,8</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>6,58</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>-4,0%</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>13,96%</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>2,78%</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>23,42%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>-7,18; 2,56</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>-1,39; 7,38</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>-4,58; 4,9</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>1,34; 11,74</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>-14,12; 5,73</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>-5,93; 40,21</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>-14,28; 18,35</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>4,16; 46,18</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
